--- a/Processing/Demographics.Facebook.Processing/Data/2-DataFolha-20181018.xlsx
+++ b/Processing/Demographics.Facebook.Processing/Data/2-DataFolha-20181018.xlsx
@@ -77,10 +77,10 @@
     <t>Fernando Haddad</t>
   </si>
   <si>
-    <t>Em branco/nulo/nenhum</t>
-  </si>
-  <si>
-    <t>Nao Sabe</t>
+    <t>Em branco/ nulo/ nenhum</t>
+  </si>
+  <si>
+    <t>Não Sabe</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
